--- a/SourceData/mtcars/mtcars_meta.xlsx
+++ b/SourceData/mtcars/mtcars_meta.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\SmartReportHusteel\SourceData\mtcars\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\SSS_210621\SourceData\mtcars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5211B356-D912-4292-9EEA-D0A8D96A4447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="mtcars_meta" sheetId="1" r:id="rId1"/>
@@ -96,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1041,11 +1040,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1087,19 +1086,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>200</v>
       </c>
       <c r="D2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E2">
         <v>4</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>20</v>
@@ -1113,13 +1112,13 @@
         <v>100</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>15</v>
